--- a/data/sysml2/3/result/AffectedElement.xlsx
+++ b/data/sysml2/3/result/AffectedElement.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +569,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Collide</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -577,16 +577,8 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CollideCondition</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>DamageCondition</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -599,7 +591,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Collide</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -607,25 +599,16 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Casualty</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CollideCondition</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -642,12 +625,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CollideCondition</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -659,12 +642,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>Explode</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -673,7 +656,11 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ExplodeCondition</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -686,7 +673,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -694,6 +681,11 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -703,7 +695,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -711,21 +703,16 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -733,6 +720,15 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SpillCondition</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -742,7 +738,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Explode</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -753,7 +749,7 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -763,12 +759,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -777,7 +773,11 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DetachedCondition</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -790,7 +790,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -798,16 +798,21 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -815,25 +820,16 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>SpillCondition</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -842,11 +838,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>PullotedCondition</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -854,12 +846,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -867,15 +859,6 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>DetachedCondition</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -885,7 +868,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>DetachedCondition</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -907,7 +890,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>DetachedCondition</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -919,12 +902,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -941,12 +924,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -958,12 +941,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DetachedCondition</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -980,12 +963,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DetachedCondition</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1002,7 +985,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1024,7 +1007,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1041,7 +1024,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>Collide</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1049,8 +1032,16 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>CollideCondition</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>DamageCondition</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -1063,7 +1054,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>Collide</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1071,16 +1062,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Casualty</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>CollideCondition</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1097,12 +1097,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>CollideCondition</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1114,12 +1114,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1136,12 +1136,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1153,12 +1153,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>Casualty</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1175,12 +1175,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>Casualty</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>IncludedFacilities</t>
+          <t>VehicleLoad</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>IncludedFacilities</t>
+          <t>VehicleLoad</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>IncludedLanes</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>IncludedLanes</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>Lane</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>Lane</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>Facility</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>Facility</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehiclePart</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehiclePart</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1537,27 +1537,23 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IncludedLanes</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>IncludedLanes</t>
+          <t>AffectedElement</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -1567,27 +1563,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>IncludedLanes</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>IncludedLanes</t>
+          <t>AffectedElement</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1597,20 +1589,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>IncludedFacilities</t>
+          <t>passenger</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>IncludedFacilities</t>
+          <t>People</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -1627,43 +1619,43 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>IncludedFacilities</t>
+          <t>passenger</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>IncludedFacilities</t>
+          <t>People</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>AffectedElement</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -1673,46 +1665,42 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>AffectedElement</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -1724,50 +1712,42 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -1779,50 +1759,42 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>VehicleComponents</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -1834,25 +1806,21 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>VehicleComponents</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1832,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1873,7 +1841,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -1890,7 +1858,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1899,7 +1867,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1879,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1920,7 +1888,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -1937,7 +1905,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1946,28 +1914,36 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>RoadName</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -1979,42 +1955,58 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>RoadName</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Road</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>RoadType</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>"主路"</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -2026,42 +2018,58 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>RoadType</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>"主路"</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Road</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>NumberOfLanes</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -2073,42 +2081,58 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>NumberOfLanes</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Road</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>TrafficVolume</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -2120,44 +2144,60 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>TrafficVolume</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Road</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>SegmentStartStakeNumber</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>AffectedElement</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2167,46 +2207,58 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>SegmentStartStakeNumber</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>AffectedElement</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>IncludedLanes</t>
+          <t>SegmentEndStakeNumber</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>IncludedLanes</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -2218,50 +2270,58 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>IncludedLanes</t>
+          <t>SegmentEndStakeNumber</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>IncludedLanes</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Road</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>IncludedFacilities</t>
+          <t>DesignSpeed</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>IncludedFacilities</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -2273,25 +2333,29 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>IncludedFacilities</t>
+          <t>DesignSpeed</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>IncludedFacilities</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Road</t>
         </is>
       </c>
     </row>
@@ -2303,24 +2367,24 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RoadName</t>
+          <t>ClosureCondition</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -2337,24 +2401,24 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RoadName</t>
+          <t>ClosureCondition</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
     </row>
@@ -2366,24 +2430,24 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RoadType</t>
+          <t>DamageConditon</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Enum</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>"主路"</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -2400,24 +2464,24 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RoadType</t>
+          <t>DamageConditon</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Enum</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>"主路"</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
     </row>
@@ -2429,24 +2493,24 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NumberOfLanes</t>
+          <t>PollutionCondition</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -2463,24 +2527,24 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NumberOfLanes</t>
+          <t>PollutionCondition</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
     </row>
@@ -2492,24 +2556,24 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TrafficVolume</t>
+          <t>VehicleType</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"truck"</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -2526,24 +2590,24 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TrafficVolume</t>
+          <t>VehicleType</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"truck"</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -2555,24 +2619,24 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SegmentStartStakeNumber</t>
+          <t>CombustionCondition</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -2589,24 +2653,24 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SegmentStartStakeNumber</t>
+          <t>CombustionCondition</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -2618,24 +2682,24 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SegmentEndStakeNumber</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -2652,24 +2716,24 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SegmentEndStakeNumber</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -2681,24 +2745,24 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DesignSpeed</t>
+          <t>DrivingDirection</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"forward"</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -2715,24 +2779,24 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DesignSpeed</t>
+          <t>DrivingDirection</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"forward"</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -2744,24 +2808,24 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ClosureCondition</t>
+          <t>VehiclePosition</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>"ND569"</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -2778,24 +2842,24 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ClosureCondition</t>
+          <t>VehiclePosition</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>"ND569"</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -2807,24 +2871,24 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RoadMaintenanceConditon</t>
+          <t>VehicleSpeed</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -2841,24 +2905,24 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RoadMaintenanceConditon</t>
+          <t>VehicleSpeed</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2934,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RoadConstrucetionCondition</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -2887,7 +2951,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -2904,7 +2968,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RoadConstrucetionCondition</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -2921,7 +2985,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -2933,24 +2997,24 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TravelTime</t>
+          <t>CollisionCondition</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -2967,53 +3031,45 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TravelTime</t>
+          <t>CollisionCondition</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partAssociate</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TrafficCapacity</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -3025,659 +3081,21 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partAssociate</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TrafficCapacity</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>SpeedLimit</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>SpeedLimit</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>VehicleType</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>VehicleType</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>CombustionCondition</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>CombustionCondition</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>SpillCondition</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>SpillCondition</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>DrivingDirection</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>"正向"</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>DrivingDirection</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>"正向"</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>VehiclePosition</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>VehiclePosition</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>VehicleSpeed</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>VehicleSpeed</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>DamageCondition</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>DamageCondition</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>RoadDamageCondition</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>RoadDamageCondition</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>PollutionCondition</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>PollutionCondition</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>

--- a/data/sysml2/3/result/AffectedElement.xlsx
+++ b/data/sysml2/3/result/AffectedElement.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -591,7 +591,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>Collide</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -616,8 +616,16 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CollideCondition</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>DamageCondition</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -630,7 +638,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>Collide</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -638,16 +646,25 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Casualty</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Explode</t>
+          <t>CollideCondition</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -656,11 +673,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>ExplodeCondition</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -668,12 +681,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>CollideCondition</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -681,11 +694,6 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -695,7 +703,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -703,16 +711,21 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -720,25 +733,16 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SpillCondition</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>Casualty</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -747,11 +751,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>PullotedCondition</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -759,12 +759,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>Casualty</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -772,25 +772,16 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>DetachedCondition</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -807,12 +798,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -824,12 +815,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -838,7 +829,11 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>SpillCondition</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -846,12 +841,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -859,16 +854,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PullotedCondition</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DetachedCondition</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -877,7 +881,11 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DetachedCondition</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -890,7 +898,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DetachedCondition</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -898,16 +906,21 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -915,21 +928,16 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -937,16 +945,21 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -954,21 +967,16 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>DetachedCondition</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -976,16 +984,21 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>DetachedCondition</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -993,11 +1006,6 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1007,7 +1015,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1015,6 +1023,11 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1024,7 +1037,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Collide</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1032,19 +1045,6 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>CollideCondition</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>DamageCondition</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Collide</t>
+          <t>Explode</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1075,12 +1075,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CollideCondition</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1097,12 +1097,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CollideCondition</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1114,12 +1114,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1136,12 +1136,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1153,12 +1153,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1175,12 +1175,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>Lane</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>Lane</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Lane</t>
+          <t>VehiclePart</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Lane</t>
+          <t>VehiclePart</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Facility</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Facility</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VehiclePart</t>
+          <t>Facility</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>VehiclePart</t>
+          <t>Facility</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>

--- a/data/sysml2/3/result/AffectedElement.xlsx
+++ b/data/sysml2/3/result/AffectedElement.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +569,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>Explode</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -578,7 +578,11 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ExplodeCondition</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -586,12 +590,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -599,16 +603,21 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Collide</t>
+          <t>ExplodeCondition</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -616,19 +625,6 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CollideCondition</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>DamageCondition</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -638,7 +634,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Collide</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -649,7 +645,7 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -659,12 +655,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CollideCondition</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -673,7 +669,11 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>PullotedCondition</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -681,12 +681,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CollideCondition</t>
+          <t>Spill</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -694,6 +694,15 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DetachedCondition</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -703,7 +712,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -725,7 +734,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -742,7 +751,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -764,7 +773,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>PullotedCondition</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -776,12 +785,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>DetachedCondition</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -798,12 +807,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>DetachedCondition</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -820,7 +829,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -829,11 +838,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>SpillCondition</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -846,7 +851,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -854,15 +859,6 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>PullotedCondition</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -872,7 +868,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Spill</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -881,11 +877,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>DetachedCondition</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -893,12 +885,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -906,21 +898,16 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -928,16 +915,21 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -945,21 +937,16 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PullotedCondition</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -967,16 +954,21 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DetachedCondition</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -984,21 +976,16 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DetachedCondition</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1006,6 +993,11 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1015,7 +1007,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1023,11 +1015,6 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1037,7 +1024,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>Collide</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1045,6 +1032,19 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>CollideCondition</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>DamageCondition</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Explode</t>
+          <t>Collide</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>Casualty</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1075,12 +1075,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>CollideCondition</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1097,12 +1097,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>CollideCondition</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1114,12 +1114,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1136,12 +1136,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1153,12 +1153,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>Casualty</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1175,12 +1175,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>Casualty</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>VehicleLoad</t>
+          <t>VehiclePart</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VehicleLoad</t>
+          <t>VehiclePart</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>VehiclePart</t>
+          <t>Facility</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VehiclePart</t>
+          <t>Facility</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>VehicleLoad</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>VehicleLoad</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Facility</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Facility</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1537,23 +1537,23 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>AffectedElement</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -1563,46 +1563,42 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>AffectedElement</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>passenger</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>People</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -1614,25 +1610,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>passenger</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>People</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1636,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1653,7 +1645,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -1670,7 +1662,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1679,7 +1671,7 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1683,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1700,7 +1692,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -1717,7 +1709,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1726,7 +1718,7 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1730,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1747,7 +1739,7 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -1764,7 +1756,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1773,7 +1765,7 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1777,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1794,7 +1786,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -1811,7 +1803,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1820,30 +1812,30 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>hob</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>AffectedElement</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -1853,42 +1845,46 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>hob</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>AffectedElement</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Facility</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -1900,50 +1896,50 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Facility</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RoadName</t>
+          <t>lane1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>hob</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -1955,60 +1951,48 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RoadName</t>
+          <t>lane1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>hob</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RoadType</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>"主路"</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Road</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>AffectedElement</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2018,60 +2002,44 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RoadType</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>"主路"</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Road</t>
-        </is>
-      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>AffectedElement</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NumberOfLanes</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Road</t>
-        </is>
-      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>AffectedElement</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2081,60 +2049,44 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NumberOfLanes</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Road</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AffectedElement</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TrafficVolume</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Road</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>AffectedElement</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2144,31 +2096,23 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TrafficVolume</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Road</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AffectedElement</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2178,7 +2122,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SegmentStartStakeNumber</t>
+          <t>VehicleType</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -2190,12 +2134,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"car"</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -2212,7 +2156,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SegmentStartStakeNumber</t>
+          <t>VehicleType</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -2224,12 +2168,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"car"</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
     </row>
@@ -2241,24 +2185,24 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SegmentEndStakeNumber</t>
+          <t>CombustionCondition</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -2275,24 +2219,24 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SegmentEndStakeNumber</t>
+          <t>CombustionCondition</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
     </row>
@@ -2304,24 +2248,24 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DesignSpeed</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -2338,24 +2282,24 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DesignSpeed</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
     </row>
@@ -2367,24 +2311,24 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ClosureCondition</t>
+          <t>DrivingDirection</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>"forward"</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -2401,24 +2345,24 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ClosureCondition</t>
+          <t>DrivingDirection</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>"forward"</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
     </row>
@@ -2430,24 +2374,24 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DamageConditon</t>
+          <t>VehiclePosition</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>"ND569"</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -2464,24 +2408,24 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DamageConditon</t>
+          <t>VehiclePosition</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>"ND569"</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
     </row>
@@ -2493,24 +2437,24 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PollutionCondition</t>
+          <t>VehicleSpeed</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -2527,24 +2471,24 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PollutionCondition</t>
+          <t>VehicleSpeed</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
     </row>
@@ -2556,24 +2500,24 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>VehicleType</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>"truck"</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -2590,24 +2534,24 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>VehicleType</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>"truck"</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
     </row>
@@ -2619,24 +2563,24 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CombustionCondition</t>
+          <t>RoadName</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>"341"</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -2653,24 +2597,24 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CombustionCondition</t>
+          <t>RoadName</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>"341"</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
     </row>
@@ -2682,24 +2626,24 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>RoadType</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>"主路"</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -2716,24 +2660,24 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>RoadType</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>"主路"</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
     </row>
@@ -2745,24 +2689,24 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DrivingDirection</t>
+          <t>NumberOfLanes</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Enum</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>"forward"</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -2779,24 +2723,24 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DrivingDirection</t>
+          <t>NumberOfLanes</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Enum</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>"forward"</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
     </row>
@@ -2808,24 +2752,24 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>VehiclePosition</t>
+          <t>TrafficVolume</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>"ND569"</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -2842,24 +2786,24 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>VehiclePosition</t>
+          <t>TrafficVolume</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>"ND569"</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
     </row>
@@ -2871,14 +2815,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>VehicleSpeed</t>
+          <t>SegmentStartStakeNumber</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -2888,7 +2832,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -2905,14 +2849,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>VehicleSpeed</t>
+          <t>SegmentStartStakeNumber</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -2922,7 +2866,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
     </row>
@@ -2934,24 +2878,24 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>SegmentEndStakeNumber</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -2968,24 +2912,24 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>SegmentEndStakeNumber</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
     </row>
@@ -2997,24 +2941,24 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CollisionCondition</t>
+          <t>DesignSpeed</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -3031,45 +2975,53 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CollisionCondition</t>
+          <t>DesignSpeed</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>ClosureCondition</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>hob</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -3081,21 +3033,375 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>ClosureCondition</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr">
         <is>
+          <t>hob</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>RoadDamageCondition</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>RoadDamageCondition</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PollutionCondition</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>PollutionCondition</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>RoadMaintenanceConditon</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>RoadMaintenanceConditon</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>RoadConstrucetionCondition</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>RoadConstrucetionCondition</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
           <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>hob</t>
         </is>
       </c>
     </row>
